--- a/media/output/result/bpic2011_f1_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f1_complex_evaluation_weighted_edit_distance.xlsx
@@ -476,25 +476,25 @@
         <v>228</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>109</v>
+      </c>
+      <c r="F2" t="n">
         <v>119</v>
       </c>
-      <c r="D2" t="n">
-        <v>109</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0.5219298245614035</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.685878962536023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>107</v>
+      </c>
+      <c r="F3" t="n">
         <v>118</v>
       </c>
-      <c r="D3" t="n">
-        <v>107</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
-        <v>0.5244444444444445</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6880466472303207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>216</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D4" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5046296296296297</v>
+        <v>0.5120772946859904</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.9724770642201835</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6707692307692308</v>
+        <v>0.6708860759493672</v>
       </c>
     </row>
     <row r="5">
@@ -563,25 +563,25 @@
         <v>211</v>
       </c>
       <c r="C5" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4928909952606635</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.9711538461538461</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6603174603174603</v>
+        <v>0.6601307189542484</v>
       </c>
     </row>
     <row r="6">

--- a/media/output/result/bpic2011_f1_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/bpic2011_f1_complex_evaluation_weighted_edit_distance.xlsx
@@ -476,25 +476,25 @@
         <v>228</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E2" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.5219298245614035</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.685878962536023</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.5244444444444445</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.6880466472303207</v>
       </c>
     </row>
     <row r="4">
@@ -534,25 +534,25 @@
         <v>216</v>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5120772946859904</v>
+        <v>0.5046296296296297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9724770642201835</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6708860759493672</v>
+        <v>0.6707692307692308</v>
       </c>
     </row>
     <row r="5">
@@ -563,25 +563,25 @@
         <v>211</v>
       </c>
       <c r="C5" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.4928909952606635</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9711538461538461</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6601307189542484</v>
+        <v>0.6603174603174603</v>
       </c>
     </row>
     <row r="6">
